--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/42/correct_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,21 +557,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient . Fly with caution .</t>
+          <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -596,42 +596,42 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft power insufficient</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated . Power off aircraft and wait for temperature to return to normal .</t>
+          <t>Aircraft power insufficient . Fly with caution .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Power off aircraft and wait for temperature to return to normal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,37 +656,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated</t>
+          <t>Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error . Restart aircraft .</t>
+          <t>Aircraft processor chip overheated . Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error</t>
+          <t>Aircraft processor chip overheated</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -716,42 +716,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Aircraft takeoff altitude error</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>Aircraft takeoff altitude error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8-15</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,42 +776,42 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>8-15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
+          <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cannot enable Follow Me Mode</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,17 +836,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1007,31 +1007,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1046,52 +1046,52 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Compass data error . Please contact DJI Support .</t>
+          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1106,52 +1106,52 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1166,42 +1166,42 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
+          <t>Critical low battery . Recharge promptly .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Temp Max Altitude : 98ft</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1226,52 +1226,52 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Critical low battery . Recharge promptly .</t>
+          <t>Critical low battery . Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1286,42 +1286,42 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Critical low battery . Return to home or land promptly .</t>
+          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1346,42 +1346,42 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
+          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1406,37 +1406,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
+          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1466,52 +1466,52 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-13</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1526,17 +1526,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-23</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1946,47 +1946,47 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2006,17 +2006,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2027,21 +2027,21 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Large Wind Velocity . Fly with caution .</t>
+          <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2066,52 +2066,52 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Large Wind Velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2126,52 +2126,52 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
+          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2186,52 +2186,52 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2246,52 +2246,52 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Remote controller in high interference environment</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
+          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2306,52 +2306,52 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
+          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2366,52 +2366,52 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
+          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2426,52 +2426,52 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Running Flight Simulator . Restart aircraft to take off .</t>
+          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Running Flight Simulator</t>
+          <t>RTH Altitude : 98FT</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2486,52 +2486,52 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Satellite positioning off . Fly with Caution .</t>
+          <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2546,42 +2546,42 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
+          <t>Satellite positioning off . Fly with Caution .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2606,52 +2606,52 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>SD card write speed is too slow</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2666,37 +2666,37 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strong Interference Now . Fly with caution .</t>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2726,52 +2726,52 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
+          <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2786,22 +2786,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2816,42 +2816,42 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked . Fly with caution .</t>
+          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2876,52 +2876,52 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate . Fly with caution .</t>
+          <t>Vision sensor(s) blocked . Fly with caution .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2936,52 +2936,52 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Weak signal . Adjust antennas .</t>
+          <t>Visual positioning inaccurate . Fly with caution .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2996,52 +2996,52 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Weak signal . Adjust antennas .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3056,52 +3056,52 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3116,20 +3116,50 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>45</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>Please fly away or land with caution</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>11-17</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/42/correct_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,21 +557,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
+          <t>Aircraft power insufficient . Fly with caution .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Aircraft power insufficient</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -596,42 +596,42 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient . Fly with caution .</t>
+          <t>Aircraft processor chip overheated . Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,37 +656,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft processor chip overheated</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated . Power off aircraft and wait for temperature to return to normal .</t>
+          <t>Aircraft takeoff altitude error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated</t>
+          <t>Aircraft takeoff altitude error</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -716,42 +716,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error . Restart aircraft .</t>
+          <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>8-15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,42 +776,42 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8-15</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,17 +836,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cannot enable Follow Me Mode</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1007,31 +1007,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Compass data error . Please contact DJI Support .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1046,52 +1046,52 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1106,52 +1106,52 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
+          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1166,42 +1166,42 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Temp Max Altitude : 98ft</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Critical low battery . Recharge promptly .</t>
+          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1226,52 +1226,52 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Critical low battery . Return to home or land promptly .</t>
+          <t>Critical low battery . Recharge promptly .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1286,42 +1286,42 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
+          <t>Critical low battery . Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1346,42 +1346,42 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
+          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1406,37 +1406,37 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1466,52 +1466,52 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-13</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1526,17 +1526,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4-23</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1946,47 +1946,47 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2006,17 +2006,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2027,21 +2027,21 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
+          <t>Large Wind Velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2066,52 +2066,52 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Large Wind Velocity . Fly with caution .</t>
+          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2126,52 +2126,52 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2186,52 +2186,52 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
+          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Remote controller in high interference environment</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2246,52 +2246,52 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
+          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2306,52 +2306,52 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
+          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2366,52 +2366,52 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
+          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2426,52 +2426,52 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>RTH Altitude : 98FT</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
+          <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2486,52 +2486,52 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Running Flight Simulator</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Running Flight Simulator . Restart aircraft to take off .</t>
+          <t>Satellite positioning off . Fly with Caution .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2546,42 +2546,42 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Satellite positioning off . Fly with Caution .</t>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2606,52 +2606,52 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>SD card write speed is too slow</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2666,37 +2666,37 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+          <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2726,52 +2726,52 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strong Interference Now . Fly with caution .</t>
+          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2786,22 +2786,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2816,42 +2816,42 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
+          <t>Vision sensor(s) blocked . Fly with caution .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2876,52 +2876,52 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked . Fly with caution .</t>
+          <t>Visual positioning inaccurate . Fly with caution .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2936,52 +2936,52 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate . Fly with caution .</t>
+          <t>Weak signal . Adjust antennas .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2996,52 +2996,52 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Weak signal . Adjust antennas .</t>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3056,52 +3056,52 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3116,50 +3116,20 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>11-17</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>45</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Please fly away or land with caution</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
